--- a/Scripts/SimATM/SimATM - SCIC0010 - ATM Processing/Report/Report/Default.xlsx
+++ b/Scripts/SimATM/SimATM - SCIC0010 - ATM Processing/Report/Report/Default.xlsx
@@ -490,6 +490,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -498,14 +501,11 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -930,7 +930,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:T4"/>
+      <selection activeCell="A3" sqref="A3:T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1024,7 +1024,7 @@
       <c r="C2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1045,7 +1045,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="9"/>
+      <c r="M2" s="11"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -1064,7 +1064,7 @@
       <c r="C3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1104,7 +1104,7 @@
       <c r="C4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>55</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1283,7 +1283,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="3" bestFit="1" customWidth="1"/>
@@ -1295,7 +1295,7 @@
     <col min="8" max="16384" width="9.078125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1">
+    <row r="1" ht="15.1" customFormat="1">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1334,10 +1334,10 @@
       <c r="E2" s="5">
         <v>259</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
